--- a/res/excel/summary_template/items_summary_template.xlsx
+++ b/res/excel/summary_template/items_summary_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldri\OneDrive\Desktop\WLP_Automation-v5\res\excel\summary_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldri\OneDrive\Desktop\Nikka System\WLP_Automation-v7\res\excel\summary_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C9B0FD-1A09-4EB2-AA13-8B5765EE087E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA5B83A-EADF-4554-A069-85FC3E6483D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E31B4C9E-2B2E-4045-962C-05F8A6B83FCC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="176">
   <si>
     <t>JHS</t>
   </si>
@@ -153,9 +153,6 @@
     <t>• Motor-Generator Model Experiment Set</t>
   </si>
   <si>
-    <t>• Optical Bench Set</t>
-  </si>
-  <si>
     <t>• Prism Set</t>
   </si>
   <si>
@@ -378,9 +375,6 @@
     <t>Motherbox B (2/2)</t>
   </si>
   <si>
-    <t>PACKING LIST</t>
-  </si>
-  <si>
     <t>Weight (kg)</t>
   </si>
   <si>
@@ -540,9 +534,6 @@
     <t>Ripple Tank Set BOX 2</t>
   </si>
   <si>
-    <t>• Archimedes Principle Set</t>
-  </si>
-  <si>
     <t>LOT 14 (2021)</t>
   </si>
   <si>
@@ -550,6 +541,18 @@
   </si>
   <si>
     <t>Long Nose Pliers, 6-inch, 1 pair/set</t>
+  </si>
+  <si>
+    <t>• Balance, Double-pan, 500-gram</t>
+  </si>
+  <si>
+    <t>Optical Bench Set</t>
+  </si>
+  <si>
+    <t>Archimedes Principle Set</t>
+  </si>
+  <si>
+    <t>Summary</t>
   </si>
 </sst>
 </file>
@@ -660,7 +663,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -740,36 +743,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{AD783628-25D3-481D-BA04-B8B532AAC67F}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{1F93C461-91AB-449D-AF4D-766C333617EF}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1102,10 +1082,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I194"/>
+  <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F166" sqref="F166"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1120,7 +1100,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1166,12 +1146,12 @@
         <v>13</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1184,7 +1164,7 @@
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1197,7 +1177,7 @@
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1210,7 +1190,7 @@
     </row>
     <row r="7" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1223,7 +1203,7 @@
     </row>
     <row r="8" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1236,7 +1216,7 @@
     </row>
     <row r="9" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1249,7 +1229,7 @@
     </row>
     <row r="10" spans="1:9" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1262,7 +1242,7 @@
     </row>
     <row r="11" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -1275,7 +1255,7 @@
     </row>
     <row r="12" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -1288,7 +1268,7 @@
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -1301,7 +1281,7 @@
     </row>
     <row r="14" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -1314,7 +1294,7 @@
     </row>
     <row r="15" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -1327,7 +1307,7 @@
     </row>
     <row r="16" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -1340,7 +1320,7 @@
     </row>
     <row r="17" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -1353,7 +1333,7 @@
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -1366,7 +1346,7 @@
     </row>
     <row r="19" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -1379,7 +1359,7 @@
     </row>
     <row r="20" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -1392,7 +1372,7 @@
     </row>
     <row r="21" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -1448,12 +1428,12 @@
         <v>13</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1466,7 +1446,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1479,7 +1459,7 @@
     </row>
     <row r="27" spans="1:9" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1492,7 +1472,7 @@
     </row>
     <row r="28" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -1505,7 +1485,7 @@
     </row>
     <row r="29" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -1518,7 +1498,7 @@
     </row>
     <row r="30" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -1531,7 +1511,7 @@
     </row>
     <row r="31" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -1544,7 +1524,7 @@
     </row>
     <row r="32" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -1557,7 +1537,7 @@
     </row>
     <row r="33" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -1570,7 +1550,7 @@
     </row>
     <row r="34" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -1583,7 +1563,7 @@
     </row>
     <row r="35" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -1596,7 +1576,7 @@
     </row>
     <row r="36" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -1609,7 +1589,7 @@
     </row>
     <row r="37" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -1622,7 +1602,7 @@
     </row>
     <row r="38" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -1635,7 +1615,7 @@
     </row>
     <row r="39" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -1648,7 +1628,7 @@
     </row>
     <row r="40" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -1661,7 +1641,7 @@
     </row>
     <row r="41" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -1674,7 +1654,7 @@
     </row>
     <row r="42" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -1687,7 +1667,7 @@
     </row>
     <row r="43" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -1700,7 +1680,7 @@
     </row>
     <row r="44" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -1713,7 +1693,7 @@
     </row>
     <row r="45" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -1726,7 +1706,7 @@
     </row>
     <row r="46" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -1739,7 +1719,7 @@
     </row>
     <row r="47" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -1752,7 +1732,7 @@
     </row>
     <row r="48" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -1800,12 +1780,12 @@
         <v>13</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -1818,7 +1798,7 @@
     </row>
     <row r="53" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -1831,7 +1811,7 @@
     </row>
     <row r="54" spans="1:9" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1844,7 +1824,7 @@
     </row>
     <row r="55" spans="1:9" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -1857,7 +1837,7 @@
     </row>
     <row r="56" spans="1:9" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -1870,7 +1850,7 @@
     </row>
     <row r="57" spans="1:9" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -1883,7 +1863,7 @@
     </row>
     <row r="58" spans="1:9" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A58" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -1896,7 +1876,7 @@
     </row>
     <row r="59" spans="1:9" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -1909,7 +1889,7 @@
     </row>
     <row r="60" spans="1:9" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -1922,7 +1902,7 @@
     </row>
     <row r="61" spans="1:9" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
@@ -1935,7 +1915,7 @@
     </row>
     <row r="62" spans="1:9" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
@@ -1948,7 +1928,7 @@
     </row>
     <row r="63" spans="1:9" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
@@ -1961,7 +1941,7 @@
     </row>
     <row r="64" spans="1:9" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
@@ -1974,7 +1954,7 @@
     </row>
     <row r="65" spans="1:9" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1987,7 +1967,7 @@
     </row>
     <row r="66" spans="1:9" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
@@ -2000,7 +1980,7 @@
     </row>
     <row r="67" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
@@ -2013,7 +1993,7 @@
     </row>
     <row r="68" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
@@ -2026,7 +2006,7 @@
     </row>
     <row r="69" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
@@ -2039,7 +2019,7 @@
     </row>
     <row r="70" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
@@ -2052,7 +2032,7 @@
     </row>
     <row r="71" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -2065,7 +2045,7 @@
     </row>
     <row r="72" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -2078,7 +2058,7 @@
     </row>
     <row r="73" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
@@ -2091,7 +2071,7 @@
     </row>
     <row r="74" spans="1:9" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2104,7 +2084,7 @@
     </row>
     <row r="75" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
@@ -2117,7 +2097,7 @@
     </row>
     <row r="76" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
@@ -2130,7 +2110,7 @@
     </row>
     <row r="77" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
@@ -2143,7 +2123,7 @@
     </row>
     <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
@@ -2156,7 +2136,7 @@
     </row>
     <row r="79" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
@@ -2204,12 +2184,12 @@
         <v>13</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -2222,7 +2202,7 @@
     </row>
     <row r="84" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -2235,7 +2215,7 @@
     </row>
     <row r="85" spans="1:9" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2248,20 +2228,20 @@
     </row>
     <row r="86" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
+        <v>172</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
       <c r="G86" s="4"/>
       <c r="H86" s="18"/>
       <c r="I86" s="18"/>
     </row>
     <row r="87" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
@@ -2274,7 +2254,7 @@
     </row>
     <row r="88" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
@@ -2287,7 +2267,7 @@
     </row>
     <row r="89" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
@@ -2300,7 +2280,7 @@
     </row>
     <row r="90" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
@@ -2313,7 +2293,7 @@
     </row>
     <row r="91" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
@@ -2326,7 +2306,7 @@
     </row>
     <row r="92" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
@@ -2339,7 +2319,7 @@
     </row>
     <row r="93" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
@@ -2352,7 +2332,7 @@
     </row>
     <row r="94" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
@@ -2365,7 +2345,7 @@
     </row>
     <row r="95" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
@@ -2378,7 +2358,7 @@
     </row>
     <row r="96" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
@@ -2391,7 +2371,7 @@
     </row>
     <row r="97" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
@@ -2403,61 +2383,61 @@
       <c r="I97" s="18"/>
     </row>
     <row r="98" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="20"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="21"/>
-    </row>
-    <row r="99" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="12" t="s">
+      <c r="A98" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+    </row>
+    <row r="99" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="21"/>
+    </row>
+    <row r="100" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F101" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G101" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H100" s="4" t="s">
+      <c r="H101" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I100" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="18"/>
+      <c r="I101" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="102" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -2470,7 +2450,7 @@
     </row>
     <row r="103" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -2478,12 +2458,12 @@
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="4"/>
-      <c r="H103" s="18"/>
+      <c r="H103" s="5"/>
       <c r="I103" s="18"/>
     </row>
     <row r="104" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -2496,7 +2476,7 @@
     </row>
     <row r="105" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -2509,7 +2489,7 @@
     </row>
     <row r="106" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -2522,7 +2502,7 @@
     </row>
     <row r="107" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -2535,7 +2515,7 @@
     </row>
     <row r="108" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -2548,7 +2528,7 @@
     </row>
     <row r="109" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -2561,7 +2541,7 @@
     </row>
     <row r="110" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -2574,7 +2554,7 @@
     </row>
     <row r="111" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -2586,61 +2566,61 @@
       <c r="I111" s="18"/>
     </row>
     <row r="112" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="20"/>
-      <c r="C112" s="20"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="22"/>
-      <c r="I112" s="21"/>
-    </row>
-    <row r="113" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="12" t="s">
+      <c r="A112" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+    </row>
+    <row r="113" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="21"/>
+    </row>
+    <row r="114" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="F115" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="G115" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H114" s="4" t="s">
+      <c r="H115" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I114" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="18"/>
+      <c r="I115" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="116" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -2653,7 +2633,7 @@
     </row>
     <row r="117" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -2666,7 +2646,7 @@
     </row>
     <row r="118" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -2679,7 +2659,7 @@
     </row>
     <row r="119" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -2692,7 +2672,7 @@
     </row>
     <row r="120" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -2705,7 +2685,7 @@
     </row>
     <row r="121" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -2718,7 +2698,7 @@
     </row>
     <row r="122" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -2731,7 +2711,7 @@
     </row>
     <row r="123" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -2744,7 +2724,7 @@
     </row>
     <row r="124" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -2756,74 +2736,74 @@
       <c r="I124" s="18"/>
     </row>
     <row r="125" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="20"/>
-      <c r="C125" s="20"/>
-      <c r="D125" s="20"/>
-      <c r="E125" s="20"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="22"/>
-      <c r="I125" s="21"/>
-    </row>
-    <row r="126" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="12" t="s">
+      <c r="A125" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="18"/>
+    </row>
+    <row r="126" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="20"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="22"/>
+      <c r="I126" s="21"/>
+    </row>
+    <row r="127" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="F128" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H127" s="4" t="s">
+      <c r="H128" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I127" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="24"/>
-    </row>
-    <row r="129" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="9" t="s">
+      <c r="I128" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B129" s="18"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="18"/>
-      <c r="F129" s="18"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
       <c r="G129" s="4"/>
-      <c r="H129" s="18"/>
-      <c r="I129" s="18"/>
-    </row>
-    <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+      <c r="H129" s="4"/>
+      <c r="I129" s="24"/>
+    </row>
+    <row r="130" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
@@ -2834,35 +2814,35 @@
       <c r="H130" s="18"/>
       <c r="I130" s="18"/>
     </row>
-    <row r="131" spans="1:9" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
+    <row r="131" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+      <c r="A131" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B131" s="18"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
       <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="24"/>
-    </row>
-    <row r="132" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B132" s="18"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="18"/>
+    </row>
+    <row r="132" spans="1:9" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
       <c r="G132" s="4"/>
-      <c r="H132" s="18"/>
-      <c r="I132" s="18"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="24"/>
     </row>
     <row r="133" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
@@ -2875,7 +2855,7 @@
     </row>
     <row r="134" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
@@ -2888,7 +2868,7 @@
     </row>
     <row r="135" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B135" s="18"/>
       <c r="C135" s="18"/>
@@ -2900,57 +2880,57 @@
       <c r="I135" s="18"/>
     </row>
     <row r="136" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="20"/>
-      <c r="C136" s="20"/>
-      <c r="D136" s="20"/>
-      <c r="E136" s="20"/>
-      <c r="F136" s="20"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="22"/>
-      <c r="I136" s="21"/>
-    </row>
-    <row r="137" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="12" t="s">
+      <c r="A136" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B136" s="18"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="18"/>
+      <c r="I136" s="18"/>
+    </row>
+    <row r="137" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="20"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="22"/>
+      <c r="I137" s="21"/>
+    </row>
+    <row r="138" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E139" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="F139" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="G139" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H138" s="4" t="s">
+      <c r="H139" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I138" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="5"/>
-      <c r="I139" s="5"/>
+      <c r="I139" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="140" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
@@ -2967,7 +2947,7 @@
     </row>
     <row r="141" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -2980,7 +2960,7 @@
     </row>
     <row r="142" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -2993,7 +2973,7 @@
     </row>
     <row r="143" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -3004,9 +2984,9 @@
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
     </row>
-    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -3017,9 +2997,9 @@
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
     </row>
-    <row r="145" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -3031,21 +3011,21 @@
       <c r="I145" s="5"/>
     </row>
     <row r="146" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
+      <c r="A146" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
       <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
-      <c r="I146" s="4"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
     </row>
     <row r="147" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="B147" s="18"/>
       <c r="C147" s="18"/>
@@ -3057,21 +3037,21 @@
       <c r="I147" s="5"/>
     </row>
     <row r="148" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B148" s="18"/>
-      <c r="C148" s="18"/>
-      <c r="D148" s="18"/>
-      <c r="E148" s="18"/>
-      <c r="F148" s="18"/>
+      <c r="A148" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
       <c r="G148" s="4"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="5"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
     </row>
     <row r="149" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B149" s="18"/>
       <c r="C149" s="18"/>
@@ -3084,7 +3064,7 @@
     </row>
     <row r="150" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B150" s="18"/>
       <c r="C150" s="18"/>
@@ -3110,7 +3090,7 @@
     </row>
     <row r="152" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B152" s="18"/>
       <c r="C152" s="18"/>
@@ -3123,7 +3103,7 @@
     </row>
     <row r="153" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B153" s="18"/>
       <c r="C153" s="18"/>
@@ -3136,7 +3116,7 @@
     </row>
     <row r="154" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B154" s="18"/>
       <c r="C154" s="18"/>
@@ -3149,7 +3129,7 @@
     </row>
     <row r="155" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="B155" s="18"/>
       <c r="C155" s="18"/>
@@ -3162,7 +3142,7 @@
     </row>
     <row r="156" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="B156" s="18"/>
       <c r="C156" s="18"/>
@@ -3175,7 +3155,7 @@
     </row>
     <row r="157" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B157" s="18"/>
       <c r="C157" s="18"/>
@@ -3188,7 +3168,7 @@
     </row>
     <row r="158" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
@@ -3200,62 +3180,58 @@
       <c r="I158" s="5"/>
     </row>
     <row r="159" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="27"/>
-      <c r="B159" s="28"/>
-      <c r="C159" s="28"/>
-      <c r="D159" s="28"/>
-      <c r="E159" s="28"/>
-      <c r="F159" s="28"/>
-      <c r="G159" s="29"/>
-      <c r="H159" s="30"/>
-      <c r="I159" s="30"/>
-    </row>
-    <row r="160" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B161" s="1" t="s">
+      <c r="A159" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B159" s="18"/>
+      <c r="C159" s="18"/>
+      <c r="D159" s="18"/>
+      <c r="E159" s="18"/>
+      <c r="F159" s="18"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+    </row>
+    <row r="160" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="23"/>
+      <c r="C160" s="23"/>
+      <c r="D160" s="23"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="23"/>
+    </row>
+    <row r="161" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E162" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F161" s="1" t="s">
+      <c r="F162" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="G162" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H161" s="4" t="s">
+      <c r="H162" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I161" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="4"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="5"/>
+      <c r="I162" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="163" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -3268,7 +3244,7 @@
     </row>
     <row r="164" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -3280,60 +3256,60 @@
       <c r="I164" s="5"/>
     </row>
     <row r="165" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B165" s="5"/>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
+      <c r="A165" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B165" s="18"/>
+      <c r="C165" s="18"/>
+      <c r="D165" s="18"/>
+      <c r="E165" s="18"/>
+      <c r="F165" s="18"/>
       <c r="G165" s="4"/>
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
     </row>
-    <row r="166" spans="1:9" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="4"/>
+    <row r="166" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
       <c r="G166" s="4"/>
-      <c r="H166" s="4"/>
-      <c r="I166" s="4"/>
-    </row>
-    <row r="167" spans="1:9" ht="45" x14ac:dyDescent="0.3">
-      <c r="A167" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B167" s="18"/>
-      <c r="C167" s="18"/>
-      <c r="D167" s="18"/>
-      <c r="E167" s="18"/>
-      <c r="F167" s="18"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+    </row>
+    <row r="167" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
       <c r="G167" s="4"/>
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
     </row>
-    <row r="168" spans="1:9" ht="45" x14ac:dyDescent="0.3">
-      <c r="A168" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="B168" s="18"/>
-      <c r="C168" s="18"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="18"/>
-      <c r="F168" s="18"/>
+    <row r="168" spans="1:9" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
       <c r="G168" s="4"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="5"/>
+      <c r="H168" s="4"/>
+      <c r="I168" s="4"/>
     </row>
     <row r="169" spans="1:9" ht="45" x14ac:dyDescent="0.3">
       <c r="A169" s="25" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="B169" s="18"/>
       <c r="C169" s="18"/>
@@ -3344,9 +3320,9 @@
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
     </row>
-    <row r="170" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="45" x14ac:dyDescent="0.3">
       <c r="A170" s="25" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="B170" s="18"/>
       <c r="C170" s="18"/>
@@ -3357,9 +3333,9 @@
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
     </row>
-    <row r="171" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="45" x14ac:dyDescent="0.3">
       <c r="A171" s="25" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B171" s="18"/>
       <c r="C171" s="18"/>
@@ -3372,7 +3348,7 @@
     </row>
     <row r="172" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B172" s="18"/>
       <c r="C172" s="18"/>
@@ -3385,7 +3361,7 @@
     </row>
     <row r="173" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B173" s="18"/>
       <c r="C173" s="18"/>
@@ -3398,7 +3374,7 @@
     </row>
     <row r="174" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B174" s="18"/>
       <c r="C174" s="18"/>
@@ -3411,7 +3387,7 @@
     </row>
     <row r="175" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B175" s="18"/>
       <c r="C175" s="18"/>
@@ -3424,7 +3400,7 @@
     </row>
     <row r="176" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B176" s="18"/>
       <c r="C176" s="18"/>
@@ -3437,7 +3413,7 @@
     </row>
     <row r="177" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B177" s="18"/>
       <c r="C177" s="18"/>
@@ -3450,7 +3426,7 @@
     </row>
     <row r="178" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B178" s="18"/>
       <c r="C178" s="18"/>
@@ -3463,7 +3439,7 @@
     </row>
     <row r="179" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B179" s="18"/>
       <c r="C179" s="18"/>
@@ -3476,7 +3452,7 @@
     </row>
     <row r="180" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B180" s="18"/>
       <c r="C180" s="18"/>
@@ -3489,7 +3465,7 @@
     </row>
     <row r="181" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B181" s="18"/>
       <c r="C181" s="18"/>
@@ -3502,7 +3478,7 @@
     </row>
     <row r="182" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="25" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B182" s="18"/>
       <c r="C182" s="18"/>
@@ -3515,7 +3491,7 @@
     </row>
     <row r="183" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="25" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B183" s="18"/>
       <c r="C183" s="18"/>
@@ -3528,7 +3504,7 @@
     </row>
     <row r="184" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="25" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B184" s="18"/>
       <c r="C184" s="18"/>
@@ -3541,7 +3517,7 @@
     </row>
     <row r="185" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="25" t="s">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="B185" s="18"/>
       <c r="C185" s="18"/>
@@ -3554,7 +3530,7 @@
     </row>
     <row r="186" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B186" s="18"/>
       <c r="C186" s="18"/>
@@ -3565,9 +3541,9 @@
       <c r="H186" s="5"/>
       <c r="I186" s="5"/>
     </row>
-    <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B187" s="18"/>
       <c r="C187" s="18"/>
@@ -3578,9 +3554,9 @@
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
     </row>
-    <row r="188" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A188" s="25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B188" s="18"/>
       <c r="C188" s="18"/>
@@ -3593,7 +3569,7 @@
     </row>
     <row r="189" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B189" s="18"/>
       <c r="C189" s="18"/>
@@ -3606,7 +3582,7 @@
     </row>
     <row r="190" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B190" s="18"/>
       <c r="C190" s="18"/>
@@ -3619,7 +3595,7 @@
     </row>
     <row r="191" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B191" s="18"/>
       <c r="C191" s="18"/>
@@ -3632,7 +3608,7 @@
     </row>
     <row r="192" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B192" s="18"/>
       <c r="C192" s="18"/>
@@ -3644,22 +3620,35 @@
       <c r="I192" s="5"/>
     </row>
     <row r="193" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="7"/>
+      <c r="A193" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B193" s="18"/>
+      <c r="C193" s="18"/>
+      <c r="D193" s="18"/>
+      <c r="E193" s="18"/>
+      <c r="F193" s="18"/>
+      <c r="G193" s="4"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="5"/>
     </row>
     <row r="194" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E194" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="F194" s="26"/>
-      <c r="H194" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="I194" s="22"/>
+      <c r="A194" s="7"/>
+    </row>
+    <row r="195" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E195" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F195" s="26"/>
+      <c r="H195" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="I195" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="E194:F194"/>
+    <mergeCell ref="E195:F195"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="5" fitToHeight="0" orientation="landscape" r:id="rId1"/>
